--- a/BANCA.xlsx
+++ b/BANCA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Documents\GitHub\alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0EBDCF9-26E7-4279-ADB7-478C390D66EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44477759-8584-4E0C-8E04-E3036D846806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{1D583730-86C4-4F43-AB9E-5DBD16642D32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{1D583730-86C4-4F43-AB9E-5DBD16642D32}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJEÇÃO" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -76,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -110,7 +113,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -426,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815BA216-D454-4559-9A74-0D21F52FCC24}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +485,9 @@
         <f>SUM(B2+(B2*K2))</f>
         <v>65.475000000000009</v>
       </c>
+      <c r="H2">
+        <v>65</v>
+      </c>
       <c r="K2">
         <v>0.25</v>
       </c>
@@ -491,13 +497,13 @@
         <v>44916</v>
       </c>
       <c r="B3" s="3">
-        <f>E2</f>
+        <f t="shared" ref="B3:B23" si="0">E2</f>
         <v>65.475000000000009</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
-        <f t="shared" ref="E2:E23" si="0">SUM(B3+(B3*K3))</f>
+        <f t="shared" ref="E3:E23" si="1">SUM(B3+(B3*K3))</f>
         <v>81.843750000000014</v>
       </c>
       <c r="K3">
@@ -509,13 +515,13 @@
         <v>44917</v>
       </c>
       <c r="B4" s="3">
-        <f>E3</f>
+        <f t="shared" si="0"/>
         <v>81.843750000000014</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>102.30468750000001</v>
       </c>
       <c r="K4">
@@ -527,13 +533,13 @@
         <v>44918</v>
       </c>
       <c r="B5" s="3">
-        <f>E4</f>
+        <f t="shared" si="0"/>
         <v>102.30468750000001</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>127.88085937500001</v>
       </c>
       <c r="K5">
@@ -545,13 +551,13 @@
         <v>44919</v>
       </c>
       <c r="B6" s="3">
-        <f>E5</f>
+        <f t="shared" si="0"/>
         <v>127.88085937500001</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>159.85107421875003</v>
       </c>
       <c r="K6">
@@ -563,13 +569,13 @@
         <v>44920</v>
       </c>
       <c r="B7" s="3">
-        <f>E6</f>
+        <f t="shared" si="0"/>
         <v>159.85107421875003</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>199.81384277343753</v>
       </c>
       <c r="K7">
@@ -581,13 +587,13 @@
         <v>44921</v>
       </c>
       <c r="B8" s="3">
-        <f>E7</f>
+        <f t="shared" si="0"/>
         <v>199.81384277343753</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>249.7673034667969</v>
       </c>
       <c r="K8">
@@ -599,13 +605,13 @@
         <v>44922</v>
       </c>
       <c r="B9" s="3">
-        <f>E8</f>
+        <f t="shared" si="0"/>
         <v>249.7673034667969</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>312.20912933349615</v>
       </c>
       <c r="K9">
@@ -617,13 +623,13 @@
         <v>44923</v>
       </c>
       <c r="B10" s="3">
-        <f>E9</f>
+        <f t="shared" si="0"/>
         <v>312.20912933349615</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>390.26141166687017</v>
       </c>
       <c r="K10">
@@ -635,13 +641,13 @@
         <v>44924</v>
       </c>
       <c r="B11" s="3">
-        <f>E10</f>
+        <f t="shared" si="0"/>
         <v>390.26141166687017</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>487.8267645835877</v>
       </c>
       <c r="K11">
@@ -653,13 +659,13 @@
         <v>44925</v>
       </c>
       <c r="B12" s="3">
-        <f>E11</f>
+        <f t="shared" si="0"/>
         <v>487.8267645835877</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>609.78345572948467</v>
       </c>
       <c r="K12">
@@ -671,13 +677,13 @@
         <v>44926</v>
       </c>
       <c r="B13" s="3">
-        <f>E12</f>
+        <f t="shared" si="0"/>
         <v>609.78345572948467</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>762.22931966185581</v>
       </c>
       <c r="K13">
@@ -689,13 +695,13 @@
         <v>44927</v>
       </c>
       <c r="B14" s="3">
-        <f>E13</f>
+        <f t="shared" si="0"/>
         <v>762.22931966185581</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>952.78664957731974</v>
       </c>
       <c r="K14">
@@ -707,13 +713,13 @@
         <v>44928</v>
       </c>
       <c r="B15" s="3">
-        <f>E14</f>
+        <f t="shared" si="0"/>
         <v>952.78664957731974</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1190.9833119716498</v>
       </c>
       <c r="K15">
@@ -725,13 +731,13 @@
         <v>44929</v>
       </c>
       <c r="B16" s="3">
-        <f>E15</f>
+        <f t="shared" si="0"/>
         <v>1190.9833119716498</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1488.7291399645621</v>
       </c>
       <c r="K16">
@@ -743,13 +749,13 @@
         <v>44930</v>
       </c>
       <c r="B17" s="3">
-        <f>E16</f>
+        <f t="shared" si="0"/>
         <v>1488.7291399645621</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1860.9114249557026</v>
       </c>
       <c r="K17">
@@ -761,13 +767,13 @@
         <v>44931</v>
       </c>
       <c r="B18" s="3">
-        <f>E17</f>
+        <f t="shared" si="0"/>
         <v>1860.9114249557026</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2326.1392811946284</v>
       </c>
       <c r="K18">
@@ -779,13 +785,13 @@
         <v>44932</v>
       </c>
       <c r="B19" s="3">
-        <f>E18</f>
+        <f t="shared" si="0"/>
         <v>2326.1392811946284</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2907.6741014932854</v>
       </c>
       <c r="K19">
@@ -797,13 +803,13 @@
         <v>44933</v>
       </c>
       <c r="B20" s="3">
-        <f>E19</f>
+        <f t="shared" si="0"/>
         <v>2907.6741014932854</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3634.5926268666067</v>
       </c>
       <c r="K20">
@@ -815,13 +821,13 @@
         <v>44934</v>
       </c>
       <c r="B21" s="3">
-        <f>E20</f>
+        <f t="shared" si="0"/>
         <v>3634.5926268666067</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4543.2407835832582</v>
       </c>
       <c r="K21">
@@ -833,13 +839,13 @@
         <v>44935</v>
       </c>
       <c r="B22" s="3">
-        <f>E21</f>
+        <f t="shared" si="0"/>
         <v>4543.2407835832582</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5679.0509794790723</v>
       </c>
       <c r="K22">
@@ -851,13 +857,13 @@
         <v>44936</v>
       </c>
       <c r="B23" s="3">
-        <f>E22</f>
+        <f t="shared" si="0"/>
         <v>5679.0509794790723</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7098.81372434884</v>
       </c>
       <c r="K23">
@@ -870,7 +876,7 @@
       </c>
       <c r="B26">
         <f>SUM(H1:H23)</f>
-        <v>52.38</v>
+        <v>117.38</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -888,12 +894,408 @@
       </c>
       <c r="B30">
         <f>B26-B28</f>
-        <v>-7046.4337243488399</v>
-      </c>
-    </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+        <v>-6981.4337243488399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B32" s="3">
+        <f>E23</f>
+        <v>7098.81372434884</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <f t="shared" ref="E32:E34" si="2">SUM(B32+(B32*K32))</f>
+        <v>8873.5171554360495</v>
+      </c>
+      <c r="K32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B33" s="3">
+        <f>E32</f>
+        <v>8873.5171554360495</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <f t="shared" si="2"/>
+        <v>11091.896444295062</v>
+      </c>
+      <c r="K33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B34" s="3">
+        <f>E33</f>
+        <v>11091.896444295062</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <f t="shared" si="2"/>
+        <v>13864.870555368827</v>
+      </c>
       <c r="J34">
         <v>4.8</v>
+      </c>
+      <c r="K34">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44940</v>
+      </c>
+      <c r="B35" s="3">
+        <f>E34</f>
+        <v>13864.870555368827</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <f t="shared" ref="E35:E38" si="3">SUM(B35+(B35*K35))</f>
+        <v>17331.088194211035</v>
+      </c>
+      <c r="K35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B36" s="3">
+        <f>E35</f>
+        <v>17331.088194211035</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <f t="shared" si="3"/>
+        <v>21663.860242763796</v>
+      </c>
+      <c r="K36">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44942</v>
+      </c>
+      <c r="B37" s="3">
+        <f>E36</f>
+        <v>21663.860242763796</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <f>SUM(B37+(B37*K37))</f>
+        <v>27079.825303454745</v>
+      </c>
+      <c r="K37">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B38" s="3">
+        <f>E37</f>
+        <v>27079.825303454745</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <f t="shared" si="3"/>
+        <v>33849.78162931843</v>
+      </c>
+      <c r="K38">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B39" s="3">
+        <f>E38</f>
+        <v>33849.78162931843</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
+        <f t="shared" ref="E39:E52" si="4">SUM(B39+(B39*K39))</f>
+        <v>42312.227036648037</v>
+      </c>
+      <c r="K39">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44945</v>
+      </c>
+      <c r="B40" s="3">
+        <f t="shared" ref="B39:B52" si="5">E39</f>
+        <v>42312.227036648037</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
+        <f t="shared" si="4"/>
+        <v>52890.283795810043</v>
+      </c>
+      <c r="K40">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B41" s="3">
+        <f>E40</f>
+        <v>52890.283795810043</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
+        <f t="shared" si="4"/>
+        <v>66112.854744762561</v>
+      </c>
+      <c r="K41">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B42" s="3">
+        <f t="shared" ref="B42:B52" si="6">E41</f>
+        <v>66112.854744762561</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <f t="shared" si="4"/>
+        <v>82641.068430953193</v>
+      </c>
+      <c r="K42">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B43" s="3">
+        <f t="shared" si="6"/>
+        <v>82641.068430953193</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
+        <f t="shared" si="4"/>
+        <v>103301.33553869149</v>
+      </c>
+      <c r="K43">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B44" s="3">
+        <f>E43</f>
+        <v>103301.33553869149</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
+        <f t="shared" si="4"/>
+        <v>129126.66942336436</v>
+      </c>
+      <c r="K44">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B45" s="3">
+        <f t="shared" ref="B45:B52" si="7">E44</f>
+        <v>129126.66942336436</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <f t="shared" si="4"/>
+        <v>161408.33677920545</v>
+      </c>
+      <c r="K45">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B46" s="3">
+        <f>E45</f>
+        <v>161408.33677920545</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <f t="shared" si="4"/>
+        <v>201760.42097400682</v>
+      </c>
+      <c r="K46">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B47" s="3">
+        <f>E46</f>
+        <v>201760.42097400682</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
+        <f t="shared" si="4"/>
+        <v>252200.52621750854</v>
+      </c>
+      <c r="K47">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44953</v>
+      </c>
+      <c r="B48" s="3">
+        <f>E47</f>
+        <v>252200.52621750854</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
+        <f t="shared" si="4"/>
+        <v>315250.65777188569</v>
+      </c>
+      <c r="K48">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44954</v>
+      </c>
+      <c r="B49" s="3">
+        <f>E48</f>
+        <v>315250.65777188569</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
+        <f t="shared" si="4"/>
+        <v>394063.32221485709</v>
+      </c>
+      <c r="K49">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44955</v>
+      </c>
+      <c r="B50" s="3">
+        <f>E49</f>
+        <v>394063.32221485709</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3">
+        <f t="shared" si="4"/>
+        <v>492579.1527685714</v>
+      </c>
+      <c r="K50">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44956</v>
+      </c>
+      <c r="B51" s="3">
+        <f t="shared" ref="B51:B52" si="8">E50</f>
+        <v>492579.1527685714</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3">
+        <f t="shared" si="4"/>
+        <v>615723.94096071424</v>
+      </c>
+      <c r="K51">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B52" s="3">
+        <f t="shared" si="8"/>
+        <v>615723.94096071424</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3">
+        <f t="shared" si="4"/>
+        <v>769654.92620089278</v>
+      </c>
+      <c r="K52">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -905,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10599DB4-0B5F-44EA-A90B-38861498E98E}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,8 +1321,8 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2">
-        <v>65.475000000000009</v>
+      <c r="B1" s="3">
+        <v>52.38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +1345,7 @@
       </c>
       <c r="B5" s="2">
         <f>B1*B3</f>
-        <v>3.2737500000000006</v>
+        <v>2.6190000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -955,7 +1357,7 @@
       </c>
       <c r="B7" s="2">
         <f>B5*1.48</f>
-        <v>4.8451500000000012</v>
+        <v>3.8761200000000002</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +1369,7 @@
       </c>
       <c r="B9" s="2">
         <f>B5*1.68</f>
-        <v>5.4999000000000011</v>
+        <v>4.3999199999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1020,11 +1422,11 @@
         <v>44915</v>
       </c>
       <c r="B2">
-        <f>E1</f>
+        <f t="shared" ref="B2:B23" si="0">E1</f>
         <v>50</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E23" si="0">SUM(B2+(B2*K2))</f>
+        <f t="shared" ref="E2:E23" si="1">SUM(B2+(B2*K2))</f>
         <v>62.5</v>
       </c>
       <c r="K2">
@@ -1036,11 +1438,11 @@
         <v>44916</v>
       </c>
       <c r="B3">
-        <f>E2</f>
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78.125</v>
       </c>
       <c r="K3">
@@ -1052,11 +1454,11 @@
         <v>44917</v>
       </c>
       <c r="B4">
-        <f>E3</f>
+        <f t="shared" si="0"/>
         <v>78.125</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97.65625</v>
       </c>
       <c r="K4">
@@ -1068,11 +1470,11 @@
         <v>44918</v>
       </c>
       <c r="B5">
-        <f>E4</f>
+        <f t="shared" si="0"/>
         <v>97.65625</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>122.0703125</v>
       </c>
       <c r="K5">
@@ -1084,11 +1486,11 @@
         <v>44919</v>
       </c>
       <c r="B6">
-        <f>E5</f>
+        <f t="shared" si="0"/>
         <v>122.0703125</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>152.587890625</v>
       </c>
       <c r="K6">
@@ -1100,11 +1502,11 @@
         <v>44920</v>
       </c>
       <c r="B7">
-        <f>E6</f>
+        <f t="shared" si="0"/>
         <v>152.587890625</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>190.73486328125</v>
       </c>
       <c r="K7">
@@ -1116,11 +1518,11 @@
         <v>44921</v>
       </c>
       <c r="B8">
-        <f>E7</f>
+        <f t="shared" si="0"/>
         <v>190.73486328125</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>238.4185791015625</v>
       </c>
       <c r="K8">
@@ -1132,11 +1534,11 @@
         <v>44922</v>
       </c>
       <c r="B9">
-        <f>E8</f>
+        <f t="shared" si="0"/>
         <v>238.4185791015625</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>298.02322387695313</v>
       </c>
       <c r="K9">
@@ -1148,11 +1550,11 @@
         <v>44923</v>
       </c>
       <c r="B10">
-        <f>E9</f>
+        <f t="shared" si="0"/>
         <v>298.02322387695313</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>372.52902984619141</v>
       </c>
       <c r="K10">
@@ -1164,11 +1566,11 @@
         <v>44924</v>
       </c>
       <c r="B11">
-        <f>E10</f>
+        <f t="shared" si="0"/>
         <v>372.52902984619141</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>465.66128730773926</v>
       </c>
       <c r="K11">
@@ -1180,11 +1582,11 @@
         <v>44925</v>
       </c>
       <c r="B12">
-        <f>E11</f>
+        <f t="shared" si="0"/>
         <v>465.66128730773926</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>582.07660913467407</v>
       </c>
       <c r="K12">
@@ -1196,11 +1598,11 @@
         <v>44926</v>
       </c>
       <c r="B13">
-        <f>E12</f>
+        <f t="shared" si="0"/>
         <v>582.07660913467407</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>727.59576141834259</v>
       </c>
       <c r="K13">
@@ -1212,11 +1614,11 @@
         <v>44927</v>
       </c>
       <c r="B14">
-        <f>E13</f>
+        <f t="shared" si="0"/>
         <v>727.59576141834259</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>909.49470177292824</v>
       </c>
       <c r="K14">
@@ -1228,11 +1630,11 @@
         <v>44928</v>
       </c>
       <c r="B15">
-        <f>E14</f>
+        <f t="shared" si="0"/>
         <v>909.49470177292824</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1136.8683772161603</v>
       </c>
       <c r="K15">
@@ -1244,11 +1646,11 @@
         <v>44929</v>
       </c>
       <c r="B16">
-        <f>E15</f>
+        <f t="shared" si="0"/>
         <v>1136.8683772161603</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1421.0854715202004</v>
       </c>
       <c r="K16">
@@ -1260,11 +1662,11 @@
         <v>44930</v>
       </c>
       <c r="B17">
-        <f>E16</f>
+        <f t="shared" si="0"/>
         <v>1421.0854715202004</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1776.3568394002505</v>
       </c>
       <c r="K17">
@@ -1276,11 +1678,11 @@
         <v>44931</v>
       </c>
       <c r="B18">
-        <f>E17</f>
+        <f t="shared" si="0"/>
         <v>1776.3568394002505</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2220.4460492503131</v>
       </c>
       <c r="K18">
@@ -1292,11 +1694,11 @@
         <v>44932</v>
       </c>
       <c r="B19">
-        <f>E18</f>
+        <f t="shared" si="0"/>
         <v>2220.4460492503131</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2775.5575615628914</v>
       </c>
       <c r="K19">
@@ -1308,11 +1710,11 @@
         <v>44933</v>
       </c>
       <c r="B20">
-        <f>E19</f>
+        <f t="shared" si="0"/>
         <v>2775.5575615628914</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3469.4469519536142</v>
       </c>
       <c r="K20">
@@ -1324,11 +1726,11 @@
         <v>44934</v>
       </c>
       <c r="B21">
-        <f>E20</f>
+        <f t="shared" si="0"/>
         <v>3469.4469519536142</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4336.8086899420177</v>
       </c>
       <c r="K21">
@@ -1340,11 +1742,11 @@
         <v>44935</v>
       </c>
       <c r="B22">
-        <f>E21</f>
+        <f t="shared" si="0"/>
         <v>4336.8086899420177</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5421.0108624275217</v>
       </c>
       <c r="K22">
@@ -1356,11 +1758,11 @@
         <v>44936</v>
       </c>
       <c r="B23">
-        <f>E22</f>
+        <f t="shared" si="0"/>
         <v>5421.0108624275217</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6776.2635780344026</v>
       </c>
       <c r="K23">
